--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Procr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Procr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -534,7 +534,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H2">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.518283</v>
+        <v>15.519257</v>
       </c>
       <c r="N2">
-        <v>23.036566</v>
+        <v>31.038514</v>
       </c>
       <c r="O2">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="P2">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
       <c r="Q2">
-        <v>1.6956467544205</v>
+        <v>3.747962642528</v>
       </c>
       <c r="R2">
-        <v>6.782587017682</v>
+        <v>14.991850570112</v>
       </c>
       <c r="S2">
-        <v>0.3533894220516505</v>
+        <v>0.3979295748367648</v>
       </c>
       <c r="T2">
-        <v>0.2877585288090849</v>
+        <v>0.3581777664585313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H3">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>20.338384</v>
       </c>
       <c r="O3">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="P3">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
       <c r="Q3">
-        <v>0.9980282309946665</v>
+        <v>1.637267029845333</v>
       </c>
       <c r="R3">
-        <v>5.988169385967999</v>
+        <v>9.823602179071999</v>
       </c>
       <c r="S3">
-        <v>0.2079988764304695</v>
+        <v>0.1738323017651953</v>
       </c>
       <c r="T3">
-        <v>0.2540545087403319</v>
+        <v>0.2347005708616053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H4">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5063716666666667</v>
+        <v>0.111973</v>
       </c>
       <c r="N4">
-        <v>1.519115</v>
+        <v>0.335919</v>
       </c>
       <c r="O4">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="P4">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
       <c r="Q4">
-        <v>0.07454474535083333</v>
+        <v>0.027041927392</v>
       </c>
       <c r="R4">
-        <v>0.447268472105</v>
+        <v>0.162251564352</v>
       </c>
       <c r="S4">
-        <v>0.01553585639688349</v>
+        <v>0.002871101901540587</v>
       </c>
       <c r="T4">
-        <v>0.01897584464159342</v>
+        <v>0.003876432909480891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H5">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.207739500000001</v>
+        <v>14.82404</v>
       </c>
       <c r="N5">
-        <v>12.415479</v>
+        <v>29.64808</v>
       </c>
       <c r="O5">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="P5">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
       <c r="Q5">
-        <v>0.91386305888325</v>
+        <v>3.58006495616</v>
       </c>
       <c r="R5">
-        <v>3.655452235533</v>
+        <v>14.32025982464</v>
       </c>
       <c r="S5">
-        <v>0.1904580286968294</v>
+        <v>0.3801035020273971</v>
       </c>
       <c r="T5">
-        <v>0.1550864817047858</v>
+        <v>0.3421324575713854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H6">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.942118000000001</v>
+        <v>1.118862333333333</v>
       </c>
       <c r="N6">
-        <v>20.826354</v>
+        <v>3.356587</v>
       </c>
       <c r="O6">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="P6">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
       <c r="Q6">
-        <v>1.021973488193</v>
+        <v>0.2702097289493334</v>
       </c>
       <c r="R6">
-        <v>6.131840929158001</v>
+        <v>1.621258373696</v>
       </c>
       <c r="S6">
-        <v>0.2129893029919789</v>
+        <v>0.02868877115729213</v>
       </c>
       <c r="T6">
-        <v>0.2601499280533914</v>
+        <v>0.03873429103544526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1472135</v>
+        <v>0.241504</v>
       </c>
       <c r="H7">
-        <v>0.294427</v>
+        <v>0.483008</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6397666666666667</v>
+        <v>0.6464153333333333</v>
       </c>
       <c r="N7">
-        <v>1.9193</v>
+        <v>1.939246</v>
       </c>
       <c r="O7">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="P7">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
       <c r="Q7">
-        <v>0.09418229018333334</v>
+        <v>0.1561118886613333</v>
       </c>
       <c r="R7">
-        <v>0.5650937411000001</v>
+        <v>0.936671331968</v>
       </c>
       <c r="S7">
-        <v>0.01962851343218814</v>
+        <v>0.01657474831181022</v>
       </c>
       <c r="T7">
-        <v>0.02397470805081264</v>
+        <v>0.02237848116355187</v>
       </c>
     </row>
   </sheetData>
